--- a/fresher-excel-maven/transaction.xlsx
+++ b/fresher-excel-maven/transaction.xlsx
@@ -397,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,7 +408,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,8 +451,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="3">
-        <f ca="1">NOW()</f>
-        <v>44719.049502662034</v>
+        <v>42563.943055555559</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">

--- a/fresher-excel-maven/transaction.xlsx
+++ b/fresher-excel-maven/transaction.xlsx
@@ -397,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +451,8 @@
         <v>14</v>
       </c>
       <c r="E2" s="3">
-        <v>42563.943055555559</v>
+        <f ca="1">NOW()</f>
+        <v>44720.458199652778</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -468,7 +469,8 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>40069.806944444441</v>
+        <f t="shared" ref="E3:E6" ca="1" si="0">NOW()</f>
+        <v>44720.458199652778</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -485,7 +487,8 @@
         <v>16</v>
       </c>
       <c r="E4" s="3">
-        <v>43536.74722222222</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44720.458199652778</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -502,7 +505,8 @@
         <v>17</v>
       </c>
       <c r="E5" s="3">
-        <v>37252.855555555558</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44720.458199652778</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -519,23 +523,18 @@
         <v>18</v>
       </c>
       <c r="E6" s="3">
-        <v>37962.558333333334</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44720.458199652778</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="3"/>
-    </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="3"/>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
